--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F05C63-8809-4967-B628-796EF304D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F92A6D-8FCE-4E04-8620-F38B8C88EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2399,7 +2399,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2746,12 +2746,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,7 +2922,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4582,46 +4582,52 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20" t="s">
-        <v>85</v>
+      <c r="K86" s="49">
+        <v>44893</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39">
+        <v>3</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
@@ -4634,7 +4640,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
@@ -5456,20 +5464,36 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F92A6D-8FCE-4E04-8620-F38B8C88EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,12 +300,18 @@
   </si>
   <si>
     <t>12/13-15/2022</t>
+  </si>
+  <si>
+    <t>12/28,29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -947,7 +952,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -995,7 +999,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1042,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1106,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1166,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1232,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1295,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1393,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1452,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1517,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1560,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1635,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1821,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1887,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1945,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2011,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2067,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2142,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2185,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2251,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2307,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,25 +2403,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2724,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2734,7 +2738,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2742,34 +2746,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2790,7 +2794,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2812,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2830,7 +2834,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2838,7 +2842,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2851,7 +2855,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2868,7 +2872,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2912,7 +2916,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29</v>
+        <v>30.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2922,12 +2926,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2969,7 +2973,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2989,7 +2993,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3009,7 +3013,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3029,7 +3033,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3049,7 +3053,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3069,7 +3073,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3089,7 +3093,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3109,7 +3113,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3149,7 +3153,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3169,7 +3173,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3193,7 +3197,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3231,7 +3235,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -3277,7 +3281,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>48</v>
@@ -3351,7 +3355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -3397,7 +3401,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3437,7 +3441,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>48</v>
@@ -3505,7 +3509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>48</v>
@@ -3527,7 +3531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43739</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43770</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43800</v>
       </c>
@@ -3593,7 +3597,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>55</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>61</v>
@@ -3657,7 +3661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43891</v>
       </c>
@@ -3703,7 +3707,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43922</v>
       </c>
@@ -3723,7 +3727,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43952</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43983</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>66</v>
@@ -3817,7 +3821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>73</v>
@@ -3895,7 +3899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44105</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -3941,7 +3945,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -3961,7 +3965,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>77</v>
       </c>
@@ -3979,7 +3983,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -3999,7 +4003,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4065,7 +4069,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4085,7 +4089,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4131,7 +4135,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4151,7 +4155,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4171,7 +4175,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4191,7 +4195,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4211,7 +4215,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4235,7 +4239,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>80</v>
       </c>
@@ -4253,7 +4257,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4273,7 +4277,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4293,7 +4297,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4313,7 +4317,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>70</v>
@@ -4359,7 +4363,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44682</v>
       </c>
@@ -4379,7 +4383,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44713</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44743</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -4447,7 +4451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44774</v>
       </c>
@@ -4467,7 +4471,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44805</v>
       </c>
@@ -4487,7 +4491,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44835</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4535,7 +4539,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44866</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>48</v>
@@ -4581,7 +4585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>59</v>
@@ -4603,7 +4607,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44896</v>
       </c>
@@ -4629,9 +4633,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -4641,14 +4649,18 @@
         <v/>
       </c>
       <c r="H88" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="K88" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4663,23 +4675,31 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="49">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4690,12 +4710,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4711,7 +4733,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4727,7 +4749,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4743,7 +4765,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4759,7 +4781,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4775,7 +4797,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4791,7 +4813,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4807,7 +4829,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4823,7 +4845,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4839,7 +4861,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4855,7 +4877,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4871,7 +4893,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4887,7 +4909,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4903,7 +4925,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4919,7 +4941,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4935,7 +4957,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4951,7 +4973,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4967,7 +4989,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4983,7 +5005,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4999,7 +5021,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5015,7 +5037,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5031,7 +5053,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5047,7 +5069,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5063,7 +5085,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5079,7 +5101,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5095,7 +5117,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5111,7 +5133,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5127,7 +5149,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5143,7 +5165,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5159,7 +5181,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5175,7 +5197,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5191,7 +5213,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5207,7 +5229,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5223,7 +5245,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5239,7 +5261,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5255,7 +5277,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5271,7 +5293,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5287,7 +5309,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5303,7 +5325,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5319,7 +5341,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5335,7 +5357,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5351,7 +5373,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5367,7 +5389,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5383,7 +5405,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5399,7 +5421,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5415,7 +5437,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5431,7 +5453,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5447,7 +5469,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5463,7 +5485,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5479,7 +5501,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -5510,15 +5532,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5536,28 +5558,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5570,7 +5592,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5599,7 +5621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5619,17 +5641,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5650,7 +5672,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5677,7 +5699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5703,7 +5725,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5729,7 +5751,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5755,7 +5777,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5781,7 +5803,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5807,7 +5829,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5833,7 +5855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5859,7 +5881,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5879,7 +5901,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5899,7 +5921,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5919,7 +5941,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5940,7 +5962,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5982,7 +6004,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6003,7 +6025,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6024,7 +6046,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6066,7 +6088,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6087,7 +6109,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6108,7 +6130,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6129,7 +6151,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6150,7 +6172,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6171,7 +6193,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6192,7 +6214,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6213,7 +6235,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6234,7 +6256,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6255,7 +6277,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6276,7 +6298,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6297,7 +6319,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6318,7 +6340,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6339,7 +6361,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6348,7 +6370,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6357,7 +6379,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6366,7 +6388,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6375,7 +6397,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6384,7 +6406,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6393,7 +6415,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6402,7 +6424,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6411,7 +6433,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6420,7 +6442,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6429,7 +6451,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6438,7 +6460,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6447,7 +6469,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6456,7 +6478,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6465,7 +6487,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6474,7 +6496,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6483,7 +6505,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6492,7 +6514,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6501,7 +6523,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6510,7 +6532,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6519,7 +6541,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6528,7 +6550,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6537,7 +6559,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6546,7 +6568,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6555,7 +6577,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6564,7 +6586,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6573,7 +6595,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6582,7 +6604,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6591,7 +6613,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6600,7 +6622,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/16,17/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/17-19/2023</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1008,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1051,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1115,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1175,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1241,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1304,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1402,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1461,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1526,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1569,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1644,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1830,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1896,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1954,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2020,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2076,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2151,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2194,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2260,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2316,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2764,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,7 +2925,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.25</v>
+        <v>29.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2926,7 +2935,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4692,7 +4701,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="49">
@@ -4700,44 +4711,60 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>44958</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39">
-        <v>1</v>
-      </c>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="39">
+        <v>2</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>3</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4747,7 +4774,9 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId2"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="6" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="2">Table14[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -312,9 +315,6 @@
   </si>
   <si>
     <t>VL(3-0-0)</t>
-  </si>
-  <si>
-    <t>3/17-19/2023</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,248 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1008,7 +1249,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1292,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1356,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1416,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,7 +1482,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1545,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1643,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1702,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1767,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1810,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1885,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +2071,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +2137,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +2195,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2261,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2317,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2392,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2435,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2501,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2557,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,22 +2653,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
+      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
     <tableColumn id="3" name="EARNED" dataDxfId="8"/>
     <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
     <tableColumn id="5" name="BALANCE" dataDxfId="6">
-      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
     <tableColumn id="7" name="EARNED " dataDxfId="4">
-      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
     <tableColumn id="9" name="BALANCE " dataDxfId="2">
-      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
     <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
@@ -2759,12 +3030,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,8 +3195,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.75</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2934,8 +3205,8 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9.75</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
+        <v>56</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3248,9 +3519,7 @@
       <c r="A25" s="40">
         <v>43497</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
@@ -3261,42 +3530,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H25" s="39">
-        <v>2</v>
-      </c>
+      <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13"/>
+      <c r="A26" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="39">
-        <v>2</v>
-      </c>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>43556</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
@@ -3307,22 +3570,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H27" s="39">
-        <v>2</v>
-      </c>
+      <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>43556</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>43586</v>
+      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
@@ -3333,44 +3590,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H28" s="39">
-        <v>3</v>
-      </c>
+      <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="13"/>
+      <c r="A29" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="39">
-        <v>2</v>
-      </c>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>43586</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>43647</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
@@ -3381,38 +3630,34 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H30" s="39">
-        <v>3</v>
-      </c>
+      <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="A31" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="39">
-        <v>3</v>
-      </c>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3432,7 +3677,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -3448,11 +3693,11 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3472,35 +3717,33 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>5</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H35" s="39">
-        <v>2</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A36" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -3509,66 +3752,54 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39">
-        <v>2</v>
-      </c>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="A37" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H37" s="39">
-        <v>2</v>
-      </c>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>43739</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="39">
-        <v>1</v>
-      </c>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49">
-        <v>43753</v>
+      <c r="K38" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3588,7 +3819,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3607,17 +3838,19 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>55</v>
+      <c r="A41" s="40">
+        <v>43922</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -3626,11 +3859,9 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>43952</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -3641,48 +3872,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H42" s="39">
-        <v>3</v>
-      </c>
+      <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="13"/>
+      <c r="A43" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>43862</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>63</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39">
-        <v>6</v>
-      </c>
+      <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3692,24 +3915,18 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>43891</v>
-      </c>
+      <c r="A45" s="40"/>
       <c r="B45" s="20"/>
-      <c r="C45" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -3718,7 +3935,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>43922</v>
+        <v>44044</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3738,7 +3955,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>43952</v>
+        <v>44075</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3757,38 +3974,26 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="39">
-        <v>3</v>
-      </c>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>44013</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -3799,49 +4004,43 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H49" s="39">
-        <v>3</v>
-      </c>
+      <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="13"/>
+      <c r="A50" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H50" s="39">
-        <v>5</v>
-      </c>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>44044</v>
+        <v>44166</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
       <c r="D51" s="39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
@@ -3849,94 +4048,78 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="39">
-        <v>4</v>
-      </c>
+      <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="39">
-        <v>8</v>
-      </c>
+      <c r="A52" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="39">
-        <v>2</v>
-      </c>
+      <c r="A53" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="39">
-        <v>3</v>
-      </c>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>44105</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39">
-        <v>2</v>
-      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>2</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>44136</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -3956,7 +4139,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>44166</v>
+        <v>44287</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3975,17 +4158,19 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>77</v>
+      <c r="A57" s="40">
+        <v>44317</v>
       </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -3994,9 +4179,11 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>44348</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
@@ -4007,18 +4194,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H58" s="39"/>
+      <c r="H58" s="39">
+        <v>2</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44378</v>
+      </c>
+      <c r="B59" s="20"/>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
@@ -4029,18 +4218,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H59" s="39">
-        <v>2</v>
-      </c>
+      <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4060,7 +4245,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4080,7 +4265,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>44317</v>
+        <v>44470</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4100,11 +4285,9 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
@@ -4115,24 +4298,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H63" s="39">
-        <v>2</v>
-      </c>
+      <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="39">
+        <v>5</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4145,19 +4328,17 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>44409</v>
+      <c r="A65" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4166,7 +4347,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44440</v>
+        <v>44562</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4186,7 +4367,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44470</v>
+        <v>44593</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4206,7 +4387,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>44501</v>
+        <v>44621</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4226,40 +4407,44 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44531</v>
+        <v>44652</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39">
-        <v>5</v>
-      </c>
+      <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>3</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>80</v>
+      <c r="A70" s="40">
+        <v>44682</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4268,7 +4453,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44562</v>
+        <v>44713</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4288,9 +4473,11 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
@@ -4301,38 +4488,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="39">
+        <v>1</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="49">
+        <v>44755</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A73" s="40"/>
+      <c r="B73" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="39"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39">
+        <v>3</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="49" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -4343,29 +4534,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H74" s="39">
-        <v>3</v>
-      </c>
+      <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="39">
-        <v>9</v>
-      </c>
+      <c r="A75" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4374,9 +4561,11 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
@@ -4387,37 +4576,43 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="39">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="49">
+        <v>44839</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H77" s="39"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="49">
+        <v>44837</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -4429,19 +4624,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="39">
-        <v>1</v>
-      </c>
+      <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="49">
-        <v>44755</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4452,39 +4645,43 @@
         <v/>
       </c>
       <c r="H79" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49" t="s">
-        <v>82</v>
+      <c r="K79" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>44893</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B81" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -4495,133 +4692,129 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>3</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>44835</v>
+      <c r="A82" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="49">
-        <v>44839</v>
+      <c r="K82" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>5</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44837</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A84" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49">
-        <v>44867</v>
-      </c>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44927</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>84</v>
+      <c r="K85" s="49">
+        <v>44957</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" s="13"/>
+      <c r="A86" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
-        <v>44893</v>
-      </c>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -4634,42 +4827,36 @@
         <v>1.25</v>
       </c>
       <c r="H87" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="13"/>
+      <c r="A88" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39">
-        <v>2</v>
-      </c>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>87</v>
-      </c>
+      <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4685,45 +4872,31 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="39">
-        <v>1</v>
-      </c>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49">
-        <v>44957</v>
-      </c>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A91" s="40"/>
       <c r="B91" s="20"/>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -4731,40 +4904,26 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39">
-        <v>2</v>
-      </c>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
-      <c r="B93" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="B93" s="20"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="39">
-        <v>3</v>
-      </c>
+      <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4774,9 +4933,7 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
@@ -5435,116 +5592,20 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="39"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="39"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5588,10 +5649,1610 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+CONVERTION!A3</f>
+        <v>4.4170000000000016</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])+CONVERTION!B3</f>
+        <v>-0.58299999999999841</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="39">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="39">
+        <v>3</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="39">
+        <v>2</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="49">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="39">
+        <v>3</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="39">
+        <v>6</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="39">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39">
+        <v>5</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39">
+        <v>4</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39">
+        <v>3</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="40"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="42" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="43"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,8 +7312,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>43.417000000000002</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44.417000000000002</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,6 +729,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,6 +932,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -936,12 +945,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -2683,7 +2686,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3033,9 +3036,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3199,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3206,7 +3209,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>56</v>
+        <v>56.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4856,15 +4859,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45047</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4872,8 +4879,12 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="61">
+        <v>45078</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -4882,10 +4893,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45078</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
@@ -5655,9 +5670,9 @@
   <dimension ref="A2:K85"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6469,7 +6484,6 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8931ADA4-0517-417A-BEFE-F023DBB8F20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,25 +28,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,12 +308,15 @@
   </si>
   <si>
     <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -696,6 +692,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,7 +1248,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1291,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1415,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1481,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1544,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1642,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1701,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1766,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1809,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1884,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2070,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2136,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2194,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2260,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2316,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2391,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2434,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2500,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2556,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2635,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2656,25 +2652,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2686,25 +2682,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A8:K84" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3011,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3021,7 +3017,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3029,95 +3025,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3125,7 +3121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3138,24 +3134,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3214,7 +3210,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3236,7 +3232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3256,7 +3252,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3276,7 +3272,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3296,7 +3292,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3316,7 +3312,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3336,7 +3332,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3347,7 +3343,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -3356,7 +3352,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3376,7 +3372,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3396,7 +3392,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3416,7 +3412,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3436,7 +3432,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3456,7 +3452,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3480,7 +3476,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3498,7 +3494,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3518,7 +3514,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3538,7 +3534,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3558,7 +3554,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3578,7 +3574,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3598,7 +3594,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3618,7 +3614,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3638,7 +3634,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3658,7 +3654,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3678,7 +3674,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3698,7 +3694,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3718,7 +3714,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3742,7 +3738,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>55</v>
       </c>
@@ -3760,7 +3756,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3780,7 +3776,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>61</v>
@@ -3800,7 +3796,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3820,7 +3816,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3840,7 +3836,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3860,7 +3856,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3880,7 +3876,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3900,7 +3896,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3920,7 +3916,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3936,7 +3932,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -3956,7 +3952,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -3976,7 +3972,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3992,7 +3988,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4012,7 +4008,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4032,7 +4028,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4056,7 +4052,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>77</v>
       </c>
@@ -4074,7 +4070,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4094,7 +4090,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4120,7 +4116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4140,7 +4136,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4160,7 +4156,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4180,7 +4176,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4226,7 +4222,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4246,7 +4242,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4266,7 +4262,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4286,7 +4282,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4306,7 +4302,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4330,7 +4326,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>80</v>
       </c>
@@ -4348,7 +4344,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4368,7 +4364,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4388,7 +4384,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4408,7 +4404,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4454,7 +4450,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4474,7 +4470,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4500,7 +4496,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
@@ -4522,7 +4518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4542,7 +4538,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4562,7 +4558,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>59</v>
@@ -4610,7 +4606,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4634,7 +4630,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>48</v>
@@ -4656,7 +4652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>59</v>
@@ -4678,7 +4674,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44896</v>
       </c>
@@ -4704,7 +4700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>32</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -4748,7 +4744,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>87</v>
       </c>
@@ -4766,7 +4762,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44927</v>
       </c>
@@ -4792,7 +4788,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44958</v>
       </c>
@@ -4812,7 +4808,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44986</v>
       </c>
@@ -4838,7 +4834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45017</v>
       </c>
@@ -4858,7 +4854,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45047</v>
       </c>
@@ -4878,8 +4874,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="61">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
         <v>45078</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4902,7 +4898,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4918,7 +4914,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4934,7 +4930,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4950,7 +4946,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4966,7 +4962,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4982,7 +4978,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4998,7 +4994,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5014,7 +5010,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5030,7 +5026,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5046,7 +5042,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5062,7 +5058,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5078,7 +5074,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5094,7 +5090,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5110,7 +5106,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5126,7 +5122,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5142,7 +5138,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5158,7 +5154,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5174,7 +5170,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5190,7 +5186,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5206,7 +5202,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5222,7 +5218,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5238,7 +5234,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5254,7 +5250,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5270,7 +5266,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5286,7 +5282,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5302,7 +5298,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5318,7 +5314,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5334,7 +5330,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5350,7 +5346,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5366,7 +5362,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5382,7 +5378,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5398,7 +5394,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5414,7 +5410,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5430,7 +5426,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5446,7 +5442,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5462,7 +5458,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5478,7 +5474,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5494,7 +5490,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5510,7 +5506,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5526,7 +5522,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5542,7 +5538,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5558,7 +5554,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5574,7 +5570,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5590,7 +5586,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5606,14 +5602,14 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
       <c r="D135" s="43"/>
       <c r="E135" s="9"/>
       <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
+      <c r="G135" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -5637,10 +5633,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5663,95 +5659,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K85"/>
+  <dimension ref="A2:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="D9:I9"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5759,7 +5755,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5772,24 +5768,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +5820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5833,7 +5829,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+CONVERTION!A3</f>
-        <v>4.4170000000000016</v>
+        <v>3.4170000000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5848,7 +5844,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -5866,7 +5862,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43497</v>
       </c>
@@ -5890,7 +5886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>48</v>
@@ -5910,7 +5906,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43525</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -5958,7 +5954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -5980,7 +5976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43586</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -6024,7 +6020,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43709</v>
       </c>
@@ -6048,7 +6044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6070,7 +6066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -6092,7 +6088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43739</v>
       </c>
@@ -6116,7 +6112,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>55</v>
       </c>
@@ -6134,7 +6130,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43831</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>61</v>
@@ -6178,7 +6174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43862</v>
       </c>
@@ -6202,7 +6198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43983</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44013</v>
       </c>
@@ -6250,7 +6246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>66</v>
@@ -6272,7 +6268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44044</v>
       </c>
@@ -6298,7 +6294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44075</v>
       </c>
@@ -6322,7 +6318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -6346,7 +6342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44105</v>
       </c>
@@ -6370,7 +6366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>77</v>
       </c>
@@ -6388,7 +6384,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>80</v>
       </c>
@@ -6403,7 +6399,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -6420,7 +6416,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>87</v>
       </c>
@@ -6435,8 +6431,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>45017</v>
+      </c>
       <c r="B37" s="20" t="s">
         <v>89</v>
       </c>
@@ -6446,19 +6444,26 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B38" s="20"/>
+        <v>45097</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39">
+        <v>1</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
@@ -6468,9 +6473,11 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="50">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6484,8 +6491,9 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6501,7 +6509,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6517,7 +6525,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6533,7 +6541,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6549,7 +6557,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6565,7 +6573,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6581,7 +6589,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6597,7 +6605,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6613,7 +6621,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6629,7 +6637,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6645,7 +6653,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6661,7 +6669,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6677,7 +6685,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6693,7 +6701,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6709,7 +6717,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6725,7 +6733,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6741,7 +6749,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6757,7 +6765,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6773,7 +6781,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6789,7 +6797,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6805,7 +6813,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6821,7 +6829,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6837,7 +6845,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6853,7 +6861,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6869,7 +6877,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6885,7 +6893,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6901,7 +6909,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6917,7 +6925,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6933,7 +6941,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6949,7 +6957,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6965,7 +6973,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6981,7 +6989,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6997,7 +7005,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7013,7 +7021,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7029,7 +7037,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7045,7 +7053,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7061,7 +7069,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7077,7 +7085,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7093,7 +7101,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7109,7 +7117,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7125,7 +7133,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7141,7 +7149,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7157,7 +7165,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7173,7 +7181,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7189,37 +7197,21 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="41"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
+      <c r="F84" s="15"/>
+      <c r="G84" s="42" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="43"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="42" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="43"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="15"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7236,10 +7228,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7262,41 +7254,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>43.417000000000002</v>
       </c>
@@ -7349,17 +7341,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7373,14 +7365,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7407,7 +7399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7433,7 +7425,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7459,7 +7451,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7485,7 +7477,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7511,7 +7503,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7537,7 +7529,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7563,7 +7555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7589,7 +7581,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7609,7 +7601,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7629,7 +7621,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7649,7 +7641,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7670,7 +7662,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7691,7 +7683,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7712,7 +7704,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7733,7 +7725,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7775,7 +7767,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7796,7 +7788,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7817,7 +7809,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7838,7 +7830,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7859,7 +7851,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7880,7 +7872,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7901,7 +7893,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7922,7 +7914,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7943,7 +7935,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7964,7 +7956,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7985,7 +7977,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8006,7 +7998,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8027,7 +8019,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8048,7 +8040,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8069,7 +8061,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8078,7 +8070,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8087,7 +8079,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8096,7 +8088,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8105,7 +8097,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8114,7 +8106,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8123,7 +8115,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8132,7 +8124,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8141,7 +8133,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8150,7 +8142,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8159,7 +8151,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8168,7 +8160,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8177,7 +8169,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8186,7 +8178,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8195,7 +8187,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8204,7 +8196,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8213,7 +8205,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8222,7 +8214,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8231,7 +8223,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8240,7 +8232,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8249,7 +8241,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8258,7 +8250,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8267,7 +8259,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8276,7 +8268,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8285,7 +8277,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8294,7 +8286,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8303,7 +8295,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8312,7 +8304,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8321,7 +8313,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8330,7 +8322,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/BELOSTRINO, JULIETA.xlsx
+++ b/BELOSTRINO, JULIETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8931ADA4-0517-417A-BEFE-F023DBB8F20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="23010" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1248,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2634,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2652,25 +2651,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2682,25 +2681,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A8:K84" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K84" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3007,7 +3006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3017,7 +3016,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3025,34 +3024,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3113,7 +3112,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3121,7 +3120,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3134,7 +3133,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3151,7 +3150,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3195,7 +3194,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3205,12 +3204,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3252,7 +3251,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3272,7 +3271,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3292,7 +3291,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3312,7 +3311,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3352,7 +3351,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3372,7 +3371,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3392,7 +3391,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3452,7 +3451,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3476,7 +3475,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3514,7 +3513,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3534,7 +3533,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3554,7 +3553,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3574,7 +3573,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3594,7 +3593,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3634,7 +3633,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3654,7 +3653,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3674,7 +3673,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3694,7 +3693,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3714,7 +3713,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>55</v>
       </c>
@@ -3756,7 +3755,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>61</v>
@@ -3796,7 +3795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3836,7 +3835,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3856,7 +3855,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3876,7 +3875,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3896,7 +3895,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3916,7 +3915,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3932,7 +3931,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -3952,7 +3951,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3988,7 +3987,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4008,7 +4007,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4028,7 +4027,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4052,7 +4051,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>77</v>
       </c>
@@ -4070,7 +4069,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4136,7 +4135,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4156,7 +4155,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4222,7 +4221,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4262,7 +4261,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>80</v>
       </c>
@@ -4344,7 +4343,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4364,7 +4363,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4384,7 +4383,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4404,7 +4403,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4470,7 +4469,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
@@ -4518,7 +4517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4558,7 +4557,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>59</v>
@@ -4606,7 +4605,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>48</v>
@@ -4652,7 +4651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>59</v>
@@ -4674,7 +4673,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44896</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>32</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -4744,7 +4743,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>87</v>
       </c>
@@ -4762,7 +4761,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44927</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44958</v>
       </c>
@@ -4808,7 +4807,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44986</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45017</v>
       </c>
@@ -4854,7 +4853,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45047</v>
       </c>
@@ -4874,20 +4873,22 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45078</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
@@ -4898,23 +4899,27 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="40">
+        <v>45108</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4930,7 +4935,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4946,7 +4951,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4962,7 +4967,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4978,7 +4983,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4994,7 +4999,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5010,7 +5015,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5026,7 +5031,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5042,7 +5047,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5058,7 +5063,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5074,7 +5079,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5090,7 +5095,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5106,7 +5111,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5122,7 +5127,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5138,7 +5143,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5154,7 +5159,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5170,7 +5175,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5186,7 +5191,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5202,7 +5207,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5218,7 +5223,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5234,7 +5239,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5250,7 +5255,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5266,7 +5271,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5282,7 +5287,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5298,7 +5303,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5314,7 +5319,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5330,7 +5335,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5346,7 +5351,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5362,7 +5367,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5378,7 +5383,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5394,7 +5399,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5410,7 +5415,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5426,7 +5431,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5442,7 +5447,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5458,7 +5463,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5474,7 +5479,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5490,7 +5495,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5506,7 +5511,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5522,7 +5527,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5538,7 +5543,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5554,7 +5559,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5570,7 +5575,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5586,7 +5591,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5602,7 +5607,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -5633,10 +5638,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5659,34 +5664,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="D9:I9"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="3690" topLeftCell="A22"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5707,7 +5712,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5725,7 +5730,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5747,7 +5752,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5755,7 +5760,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5768,7 +5773,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -5785,7 +5790,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +5825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5844,7 +5849,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -5862,7 +5867,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43497</v>
       </c>
@@ -5886,7 +5891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>48</v>
@@ -5906,7 +5911,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43525</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -5976,7 +5981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43586</v>
       </c>
@@ -6000,7 +6005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -6020,7 +6025,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43709</v>
       </c>
@@ -6044,7 +6049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6066,7 +6071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -6088,7 +6093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43739</v>
       </c>
@@ -6112,7 +6117,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>55</v>
       </c>
@@ -6130,7 +6135,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43831</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>61</v>
@@ -6174,7 +6179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43862</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43983</v>
       </c>
@@ -6222,7 +6227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44013</v>
       </c>
@@ -6246,7 +6251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>66</v>
@@ -6268,7 +6273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44044</v>
       </c>
@@ -6294,7 +6299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44075</v>
       </c>
@@ -6318,7 +6323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -6342,7 +6347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44105</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>77</v>
       </c>
@@ -6384,7 +6389,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>80</v>
       </c>
@@ -6399,7 +6404,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -6416,7 +6421,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>87</v>
       </c>
@@ -6431,7 +6436,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45017</v>
       </c>
@@ -6453,7 +6458,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45097</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6493,7 +6498,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6509,7 +6514,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6525,7 +6530,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6541,7 +6546,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6557,7 +6562,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6573,7 +6578,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6589,7 +6594,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6605,7 +6610,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6621,7 +6626,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6637,7 +6642,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6653,7 +6658,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6669,7 +6674,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6685,7 +6690,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6701,7 +6706,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6717,7 +6722,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6733,7 +6738,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6749,7 +6754,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6765,7 +6770,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6781,7 +6786,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6797,7 +6802,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6813,7 +6818,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6829,7 +6834,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6845,7 +6850,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6861,7 +6866,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6877,7 +6882,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6893,7 +6898,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6909,7 +6914,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6925,7 +6930,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6941,7 +6946,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6957,7 +6962,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6973,7 +6978,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6989,7 +6994,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7005,7 +7010,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7021,7 +7026,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7037,7 +7042,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7053,7 +7058,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7069,7 +7074,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7085,7 +7090,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7101,7 +7106,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7117,7 +7122,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7133,7 +7138,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7149,7 +7154,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7165,7 +7170,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7181,7 +7186,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7197,7 +7202,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="15"/>
       <c r="C84" s="42"/>
@@ -7215,23 +7220,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7254,28 +7259,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7288,7 +7293,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>43.417000000000002</v>
       </c>
@@ -7341,17 +7346,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7372,7 +7377,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7399,7 +7404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7425,7 +7430,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7555,7 +7560,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7601,7 +7606,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7641,7 +7646,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7662,7 +7667,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7683,7 +7688,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7704,7 +7709,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7725,7 +7730,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7767,7 +7772,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7809,7 +7814,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7830,7 +7835,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7872,7 +7877,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7893,7 +7898,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7935,7 +7940,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7956,7 +7961,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8019,7 +8024,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8040,7 +8045,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8061,7 +8066,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8070,7 +8075,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8079,7 +8084,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8088,7 +8093,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8097,7 +8102,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8115,7 +8120,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8124,7 +8129,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8133,7 +8138,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8142,7 +8147,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8151,7 +8156,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8160,7 +8165,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8169,7 +8174,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8178,7 +8183,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8187,7 +8192,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8196,7 +8201,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8205,7 +8210,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8214,7 +8219,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8223,7 +8228,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8232,7 +8237,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8241,7 +8246,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8250,7 +8255,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8259,7 +8264,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8268,7 +8273,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8277,7 +8282,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8295,7 +8300,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8304,7 +8309,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8313,7 +8318,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8322,7 +8327,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
